--- a/report/old.xlsx
+++ b/report/old.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5829899-0260-4DAB-8B0B-8F0401AC508C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA5593-22BE-4388-824E-C69A8FEB0FF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="109">
   <si>
     <t>試合回数</t>
   </si>
@@ -110,6 +110,243 @@
   </si>
   <si>
     <t>model/SGD/kihu203b_10batch_400e.npz</t>
+  </si>
+  <si>
+    <t>ランダム</t>
+  </si>
+  <si>
+    <t>SGD/10sb_2957brwr_1000e_5n.npz//SGD/20sb_1462brwr_1000e_3n.npz/SGD/4458b_brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>1.2/1.1/0.8</t>
+  </si>
+  <si>
+    <t>1.2/1/1</t>
+  </si>
+  <si>
+    <t>SGD/10sb_2957brwr_1000e_5n.npz//SGD/20sb_1462brwr_1000e_3n.npz/</t>
+  </si>
+  <si>
+    <t>1.2/1/</t>
+  </si>
+  <si>
+    <t>1/1/</t>
+  </si>
+  <si>
+    <t>1.3/1/0.9</t>
+  </si>
+  <si>
+    <t>1.1/1/1.1</t>
+  </si>
+  <si>
+    <t>0.9/0.9/1.1</t>
+  </si>
+  <si>
+    <t>0.9/0.9/1.2</t>
+  </si>
+  <si>
+    <t>1/0.9/1.2</t>
+  </si>
+  <si>
+    <t>1/0.9/1.3</t>
+  </si>
+  <si>
+    <t>model/SGD/10sb_2957brwr_1000e_5n.npz//SGD/4458b_brwr_1000e_5n.np/GD/4458b_brwr_1000e_3n.np</t>
+  </si>
+  <si>
+    <t>1/1.1/1.1</t>
+  </si>
+  <si>
+    <t>model/SGD/20sb_11042brwr_1000e_5n.npz/model/SGD/4458b_brwr_1000e_5n.npz/model/SGD/10sb_2957brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>1.2/1/1.2</t>
+  </si>
+  <si>
+    <t>model/SGD/20sb_11042brwr_1000e_5n.np/model/SGD/20sb_1462brwr_1000e_3n.np/SGD/10sb_2957brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>1.3/1/1.1</t>
+  </si>
+  <si>
+    <t>'model/SGD/20sb_11042brwr_1000e_5n.npz'/'model/SGD/10sb_2957brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
+  <si>
+    <t>1.2/1</t>
+  </si>
+  <si>
+    <t>1.2/1.1</t>
+  </si>
+  <si>
+    <t>1.2/1.15</t>
+  </si>
+  <si>
+    <t>loser</t>
+  </si>
+  <si>
+    <t>SGD/20sb_11042brwr_1000e_5n.npz'/SGD/10sb_2957brwr_1000e_5n.npz'/LOSGD/20sbloser_10000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>1.2/1.1/1</t>
+  </si>
+  <si>
+    <t>SGD/20sb_11042brwr_1000e_5n.npz'/SGD/45627brwr_1000e_5n.npz'/SGD/10sb_2957brwr_1000e_5n.npz'/LOSGD/20sbloser_10000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>1.2/1.1/1/LO1.2</t>
+  </si>
+  <si>
+    <t>/SGD/20sb_11042brwr_1000e_5n.npz/SGD/45627brwr_1000e_5n.npz/SGD/10sb_2957brwr_1000e_5n.npz/SGD/20sbloser_10000brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>1.2/1.1/1/1.5</t>
+  </si>
+  <si>
+    <t>'model/SGD/20sb_11042brwr_1000e_5n.npz'/'model/SGD/30sb_10000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model/SGD/loser_30sb_10000brwr_1000e_5n.npz'/'model/SGD/loser_30000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>1.5/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'model/SGD/loser_30sb_10000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>model/SGD/20sb_11042brwr_1000e_5n.npz'/'model/SGD/30sb_10000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>r0.5</t>
+  </si>
+  <si>
+    <t>'model/SGD/30sb_30000brwr_1000e_5n.npz'/'model/SGD/20sb_11042brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>LO'model/SGD/loser_30sb_10000brwr_1000e_5n.npz'/'model/SGD/loser_30000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>lo1.5/1</t>
+  </si>
+  <si>
+    <t>1.2/1.1/1.2</t>
+  </si>
+  <si>
+    <t>'model/SGD/30sb_10000brwr_1000e_5n.npz'/model/SGD/45627brwr_1000e_5n.npz'/'model/SGD/20sb_11042brwr_1000e_5n.npz'.</t>
+  </si>
+  <si>
+    <t>model/SGD/loser_30sb_10000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>'model/SGD/30sb_10000brwr_1000e_5n.npz'/model/SGD/45627brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>'model/SGD/10sb_2957brwr_1000e_5n.npz'/'model/SGD/20sb_11042brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>'model/SGD/20sb_11042brwr_1000e_5n.npz'/'model/SGD/45627brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>'model/SGD/20sb_11042brwr_1000e_5n.npz'/SGD/10sb_2957brwr_1000e_5n.npz'/LO'model/SGD/20sbloser_10000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>'model/SGD/20sb_11042brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>model/SGD/30sb_10000brwr_1000e_5n.npz'/model/SGD/20sb_11042brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>'model/SGD/loser_30sb_10000brwr_1000e_5n.npz'/'model/SGD/loser_30000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>50/20</t>
+  </si>
+  <si>
+    <t>30/15</t>
+  </si>
+  <si>
+    <t>30/15/30/15</t>
+  </si>
+  <si>
+    <t>20/10/10/5</t>
+  </si>
+  <si>
+    <t>20/10/</t>
+  </si>
+  <si>
+    <t>'model/SGD/30sb_30000brwr_1000e_5n.npz'/model/SGD/20sb_11042brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>lomodel/SGD/loser_20sb_30000brwr_1000e_5n.npz'/'model/SGD/loser_10sb_30000brwr_1000e_3n.npz</t>
+  </si>
+  <si>
+    <t>20/10/-10/-5</t>
+  </si>
+  <si>
+    <t>'model/SGD/30sb_80000brwr_1000e_5n.npz'/'model/SGD/20sb_20000brwr_1000e_3n.npz'</t>
+  </si>
+  <si>
+    <t>lo'model/SGD/loser_20sb_30000brwr_1000e_5n.npz'/'model/SGD/loser_10sb_30000brwr_1000e_3n.npz'</t>
+  </si>
+  <si>
+    <t>model/SGD/30sb_80000brwr_1000e_5n.npz'/'model/SGD/30sb_50000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>'model/SGD/loser_30sb_30000brwr_1000e_3n.npz'/'model/SGD/loser_20sb_30000brwr_1000e_5n.npz'</t>
+  </si>
+  <si>
+    <t>1.5/1/20/10</t>
+  </si>
+  <si>
+    <t>1.5/1/20/10/-10/-5</t>
+  </si>
+  <si>
+    <t>model/SGD/10sb_29803brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/10sb_29803brwr_1000e_3n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/20sb_11042brwr_1000e_3n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/20sb_11042brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>model/Adam/10sb_2957brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/10sb_2957brwr_1000e_3n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/10sb_2957brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/20sb_1462brwr_1000e_3n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/20sb_1462brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>model/Adam/4458b_brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/4458b_brwr_1000e_3n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/4458b_brwr_1000e_5n.npz</t>
+  </si>
+  <si>
+    <t>model/SGD/45627brwr_1000e_3n.npz</t>
   </si>
 </sst>
 </file>
@@ -152,9 +389,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1033,6 +1273,2399 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <v>650</v>
+      </c>
+      <c r="E18" s="1">
+        <v>298</v>
+      </c>
+      <c r="F18" s="1">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>643</v>
+      </c>
+      <c r="E19" s="1">
+        <v>309</v>
+      </c>
+      <c r="F19" s="1">
+        <v>48</v>
+      </c>
+      <c r="G19" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2">
+        <v>36892</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>644</v>
+      </c>
+      <c r="E20" s="1">
+        <v>313</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H20" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
+        <v>649</v>
+      </c>
+      <c r="E21" s="1">
+        <v>315</v>
+      </c>
+      <c r="F21" s="1">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H21" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>626</v>
+      </c>
+      <c r="E22" s="1">
+        <v>340</v>
+      </c>
+      <c r="F22" s="1">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <v>644</v>
+      </c>
+      <c r="E23" s="1">
+        <v>317</v>
+      </c>
+      <c r="F23" s="1">
+        <v>39</v>
+      </c>
+      <c r="G23" s="1">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H23" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1">
+        <v>684</v>
+      </c>
+      <c r="E24" s="1">
+        <v>280</v>
+      </c>
+      <c r="F24" s="1">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H24" s="1">
+        <v>28</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1">
+        <v>688</v>
+      </c>
+      <c r="E25" s="1">
+        <v>273</v>
+      </c>
+      <c r="F25" s="1">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>681</v>
+      </c>
+      <c r="E26" s="1">
+        <v>275</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44</v>
+      </c>
+      <c r="G26" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H26" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
+        <v>710</v>
+      </c>
+      <c r="E27" s="1">
+        <v>244</v>
+      </c>
+      <c r="F27" s="1">
+        <v>46</v>
+      </c>
+      <c r="G27" s="1">
+        <v>71</v>
+      </c>
+      <c r="H27" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
+        <v>690</v>
+      </c>
+      <c r="E28" s="1">
+        <v>261</v>
+      </c>
+      <c r="F28" s="1">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1">
+        <v>693</v>
+      </c>
+      <c r="E29" s="1">
+        <v>255</v>
+      </c>
+      <c r="F29" s="1">
+        <v>52</v>
+      </c>
+      <c r="G29" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>753</v>
+      </c>
+      <c r="E30" s="1">
+        <v>213</v>
+      </c>
+      <c r="F30" s="1">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1">
+        <v>75.3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>732</v>
+      </c>
+      <c r="E31" s="1">
+        <v>240</v>
+      </c>
+      <c r="F31" s="1">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>24</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1">
+        <v>714</v>
+      </c>
+      <c r="E32" s="1">
+        <v>254</v>
+      </c>
+      <c r="F32" s="1">
+        <v>32</v>
+      </c>
+      <c r="G32" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H32" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1">
+        <v>721</v>
+      </c>
+      <c r="E33" s="1">
+        <v>243</v>
+      </c>
+      <c r="F33" s="1">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="H33" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <v>755</v>
+      </c>
+      <c r="E34" s="1">
+        <v>207</v>
+      </c>
+      <c r="F34" s="1">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1">
+        <v>742</v>
+      </c>
+      <c r="E35" s="1">
+        <v>219</v>
+      </c>
+      <c r="F35" s="1">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1">
+        <v>769</v>
+      </c>
+      <c r="E36" s="1">
+        <v>188</v>
+      </c>
+      <c r="F36" s="1">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="H36" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1">
+        <v>748</v>
+      </c>
+      <c r="E37" s="1">
+        <v>217</v>
+      </c>
+      <c r="F37" s="1">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="H37" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1">
+        <v>803</v>
+      </c>
+      <c r="E38" s="1">
+        <v>169</v>
+      </c>
+      <c r="F38" s="1">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1">
+        <v>783</v>
+      </c>
+      <c r="E39" s="1">
+        <v>181</v>
+      </c>
+      <c r="F39" s="1">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I39" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>800</v>
+      </c>
+      <c r="E40" s="1">
+        <v>167</v>
+      </c>
+      <c r="F40" s="1">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1">
+        <v>80</v>
+      </c>
+      <c r="H40" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1">
+        <v>854</v>
+      </c>
+      <c r="E41" s="1">
+        <v>131</v>
+      </c>
+      <c r="F41" s="1">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1">
+        <v>841</v>
+      </c>
+      <c r="E42" s="1">
+        <v>131</v>
+      </c>
+      <c r="F42" s="1">
+        <v>28</v>
+      </c>
+      <c r="G42" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1">
+        <v>822</v>
+      </c>
+      <c r="E43" s="1">
+        <v>156</v>
+      </c>
+      <c r="F43" s="1">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1">
+        <v>816</v>
+      </c>
+      <c r="E44" s="1">
+        <v>153</v>
+      </c>
+      <c r="F44" s="1">
+        <v>31</v>
+      </c>
+      <c r="G44" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H44" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1">
+        <v>860</v>
+      </c>
+      <c r="E45" s="1">
+        <v>125</v>
+      </c>
+      <c r="F45" s="1">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1">
+        <v>86</v>
+      </c>
+      <c r="H45" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1">
+        <v>815</v>
+      </c>
+      <c r="E46" s="1">
+        <v>158</v>
+      </c>
+      <c r="F46" s="1">
+        <v>27</v>
+      </c>
+      <c r="G46" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>827</v>
+      </c>
+      <c r="E47" s="1">
+        <v>140</v>
+      </c>
+      <c r="F47" s="1">
+        <v>33</v>
+      </c>
+      <c r="G47" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1">
+        <v>806</v>
+      </c>
+      <c r="E48" s="1">
+        <v>174</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H48" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1">
+        <v>691</v>
+      </c>
+      <c r="E49" s="1">
+        <v>271</v>
+      </c>
+      <c r="F49" s="1">
+        <v>38</v>
+      </c>
+      <c r="G49" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H49" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="1">
+        <v>20</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1">
+        <v>757</v>
+      </c>
+      <c r="E50" s="1">
+        <v>205</v>
+      </c>
+      <c r="F50" s="1">
+        <v>38</v>
+      </c>
+      <c r="G50" s="1">
+        <v>75.7</v>
+      </c>
+      <c r="H50" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" s="1">
+        <v>20</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1">
+        <v>774</v>
+      </c>
+      <c r="E51" s="1">
+        <v>189</v>
+      </c>
+      <c r="F51" s="1">
+        <v>37</v>
+      </c>
+      <c r="G51" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H51" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1">
+        <v>740</v>
+      </c>
+      <c r="E52" s="1">
+        <v>224</v>
+      </c>
+      <c r="F52" s="1">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1">
+        <v>74</v>
+      </c>
+      <c r="H52" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1">
+        <v>795</v>
+      </c>
+      <c r="E53" s="1">
+        <v>172</v>
+      </c>
+      <c r="F53" s="1">
+        <v>33</v>
+      </c>
+      <c r="G53" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1">
+        <v>846</v>
+      </c>
+      <c r="E54" s="1">
+        <v>130</v>
+      </c>
+      <c r="F54" s="1">
+        <v>24</v>
+      </c>
+      <c r="G54" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="H54" s="1">
+        <v>13</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1">
+        <v>847</v>
+      </c>
+      <c r="E55" s="1">
+        <v>134</v>
+      </c>
+      <c r="F55" s="1">
+        <v>19</v>
+      </c>
+      <c r="G55" s="1">
+        <v>84.7</v>
+      </c>
+      <c r="H55" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1">
+        <v>865</v>
+      </c>
+      <c r="E56" s="1">
+        <v>112</v>
+      </c>
+      <c r="F56" s="1">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1">
+        <v>854</v>
+      </c>
+      <c r="E57" s="1">
+        <v>134</v>
+      </c>
+      <c r="F57" s="1">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="1">
+        <v>866</v>
+      </c>
+      <c r="E58" s="1">
+        <v>111</v>
+      </c>
+      <c r="F58" s="1">
+        <v>23</v>
+      </c>
+      <c r="G58" s="1">
+        <v>86.6</v>
+      </c>
+      <c r="H58" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="1">
+        <v>885</v>
+      </c>
+      <c r="E59" s="1">
+        <v>99</v>
+      </c>
+      <c r="F59" s="1">
+        <v>16</v>
+      </c>
+      <c r="G59" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="1">
+        <v>899</v>
+      </c>
+      <c r="E60" s="1">
+        <v>77</v>
+      </c>
+      <c r="F60" s="1">
+        <v>24</v>
+      </c>
+      <c r="G60" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1">
+        <v>869</v>
+      </c>
+      <c r="E61" s="1">
+        <v>114</v>
+      </c>
+      <c r="F61" s="1">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1">
+        <v>86.9</v>
+      </c>
+      <c r="H61" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="1">
+        <v>877</v>
+      </c>
+      <c r="E62" s="1">
+        <v>107</v>
+      </c>
+      <c r="F62" s="1">
+        <v>16</v>
+      </c>
+      <c r="G62" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="H62" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1">
+        <v>911</v>
+      </c>
+      <c r="E63" s="1">
+        <v>70</v>
+      </c>
+      <c r="F63" s="1">
+        <v>19</v>
+      </c>
+      <c r="G63" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>7</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>920</v>
+      </c>
+      <c r="E64" s="1">
+        <v>69</v>
+      </c>
+      <c r="F64" s="1">
+        <v>11</v>
+      </c>
+      <c r="G64" s="1">
+        <v>92</v>
+      </c>
+      <c r="H64" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1">
+        <v>901</v>
+      </c>
+      <c r="E65" s="1">
+        <v>87</v>
+      </c>
+      <c r="F65" s="1">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1">
+        <v>90.1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="1">
+        <v>562</v>
+      </c>
+      <c r="E71" s="1">
+        <v>402</v>
+      </c>
+      <c r="F71" s="1">
+        <v>36</v>
+      </c>
+      <c r="G71" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I71" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="1">
+        <v>506</v>
+      </c>
+      <c r="E72" s="1">
+        <v>450</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44</v>
+      </c>
+      <c r="G72" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="H72" s="1">
+        <v>45</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="1">
+        <v>546</v>
+      </c>
+      <c r="E73" s="1">
+        <v>417</v>
+      </c>
+      <c r="F73" s="1">
+        <v>37</v>
+      </c>
+      <c r="G73" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="H73" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="I73" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="1">
+        <v>575</v>
+      </c>
+      <c r="E74" s="1">
+        <v>371</v>
+      </c>
+      <c r="F74" s="1">
+        <v>54</v>
+      </c>
+      <c r="G74" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="1">
+        <v>554</v>
+      </c>
+      <c r="E75" s="1">
+        <v>401</v>
+      </c>
+      <c r="F75" s="1">
+        <v>45</v>
+      </c>
+      <c r="G75" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="1">
+        <v>586</v>
+      </c>
+      <c r="E76" s="1">
+        <v>377</v>
+      </c>
+      <c r="F76" s="1">
+        <v>37</v>
+      </c>
+      <c r="G76" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="H76" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I76" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="1">
+        <v>612</v>
+      </c>
+      <c r="E77" s="1">
+        <v>348</v>
+      </c>
+      <c r="F77" s="1">
+        <v>40</v>
+      </c>
+      <c r="G77" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="1">
+        <v>679</v>
+      </c>
+      <c r="E78" s="1">
+        <v>282</v>
+      </c>
+      <c r="F78" s="1">
+        <v>39</v>
+      </c>
+      <c r="G78" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H78" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="1">
+        <v>665</v>
+      </c>
+      <c r="E79" s="1">
+        <v>298</v>
+      </c>
+      <c r="F79" s="1">
+        <v>37</v>
+      </c>
+      <c r="G79" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="H79" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="I79" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="1">
+        <v>558</v>
+      </c>
+      <c r="E80" s="1">
+        <v>391</v>
+      </c>
+      <c r="F80" s="1">
+        <v>51</v>
+      </c>
+      <c r="G80" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="H80" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="1">
+        <v>749</v>
+      </c>
+      <c r="E81" s="1">
+        <v>216</v>
+      </c>
+      <c r="F81" s="1">
+        <v>35</v>
+      </c>
+      <c r="G81" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H81" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="1">
+        <v>696</v>
+      </c>
+      <c r="E82" s="1">
+        <v>277</v>
+      </c>
+      <c r="F82" s="1">
+        <v>27</v>
+      </c>
+      <c r="G82" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="H82" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="I82" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="1">
+        <v>651</v>
+      </c>
+      <c r="E83" s="1">
+        <v>304</v>
+      </c>
+      <c r="F83" s="1">
+        <v>45</v>
+      </c>
+      <c r="G83" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="H83" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="I83" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="1">
+        <v>679</v>
+      </c>
+      <c r="E84" s="1">
+        <v>278</v>
+      </c>
+      <c r="F84" s="1">
+        <v>43</v>
+      </c>
+      <c r="G84" s="1">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H84" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="I84" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
